--- a/src/templates/Expansion_and_Rehabilitation_Template.xlsx
+++ b/src/templates/Expansion_and_Rehabilitation_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE9964-84AC-480C-8745-2812401D33A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F59E65-77F0-43C5-8BF6-4416E5F91E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1191" yWindow="3429" windowWidth="31723" windowHeight="14365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Regional Office _____________</t>
   </si>
   <si>
-    <t>Regional Office 4</t>
-  </si>
-  <si>
     <t>Oriental Mindoro</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Fiber Crops Expansion / Rehabilitation Upload Form</t>
+  </si>
+  <si>
+    <t>Region 4</t>
   </si>
 </sst>
 </file>
@@ -544,24 +544,24 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.84375" style="2" customWidth="1"/>
     <col min="3" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.84375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.3046875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.69140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="2" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" customWidth="1"/>
-    <col min="12" max="13" width="20.5703125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="12.5703125" style="2"/>
+    <col min="12" max="13" width="20.53515625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="12.53515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -578,7 +578,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -595,7 +595,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -612,9 +612,9 @@
       <c r="L3" s="18"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="1"/>
@@ -629,12 +629,12 @@
       <c r="L4" s="18"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>0</v>
@@ -652,25 +652,25 @@
         <v>3</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="15"/>
@@ -685,48 +685,48 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>44553</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="K7" s="5">
         <v>3000</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
@@ -741,7 +741,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16"/>
@@ -756,7 +756,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
@@ -771,7 +771,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
@@ -786,7 +786,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
@@ -801,7 +801,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
@@ -816,7 +816,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -831,7 +831,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -846,7 +846,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
@@ -861,7 +861,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="16"/>
@@ -876,7 +876,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
@@ -891,7 +891,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="16"/>
@@ -906,7 +906,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -921,7 +921,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -936,7 +936,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -951,7 +951,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -966,7 +966,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -981,7 +981,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -996,7 +996,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1011,7 +1011,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1026,7 +1026,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1041,7 +1041,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1056,7 +1056,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1071,7 +1071,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1086,7 +1086,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1101,7 +1101,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1116,7 +1116,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1131,7 +1131,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1146,7 +1146,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1161,7 +1161,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1176,7 +1176,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1191,7 +1191,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1206,7 +1206,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1221,7 +1221,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1236,7 +1236,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1251,7 +1251,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>

--- a/src/templates/Expansion_and_Rehabilitation_Template.xlsx
+++ b/src/templates/Expansion_and_Rehabilitation_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Desktop\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D596A1AB-A61F-4E70-85E4-0032823A43C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B203AD28-EA08-4E42-B2DC-E54B4C841887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Region</t>
   </si>
@@ -114,7 +114,13 @@
     <t>District 5</t>
   </si>
   <si>
-    <t>Region 4</t>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Regional Office 4</t>
   </si>
 </sst>
 </file>
@@ -563,10 +569,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -575,16 +581,16 @@
     <col min="2" max="2" width="41.85546875" style="2" customWidth="1"/>
     <col min="3" max="6" width="20" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="12.5703125" style="2"/>
+    <col min="8" max="10" width="31.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -599,9 +605,11 @@
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -616,9 +624,11 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -633,9 +643,11 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -650,9 +662,11 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -677,23 +691,29 @@
       <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="12"/>
@@ -702,13 +722,15 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>44553</v>
       </c>
@@ -716,7 +738,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>9</v>
@@ -733,23 +755,29 @@
       <c r="H7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18">
+        <v>44553</v>
+      </c>
+      <c r="J7" s="19">
+        <v>29</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="20">
+      <c r="M7" s="20">
         <v>3000</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="N7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="O7" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -763,8 +791,10 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -778,8 +808,10 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -793,8 +825,10 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -808,8 +842,10 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -823,8 +859,10 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -838,8 +876,10 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -853,8 +893,10 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -868,8 +910,10 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -880,11 +924,13 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="11"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="13"/>
@@ -895,11 +941,13 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="11"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
@@ -910,11 +958,13 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="11"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
@@ -925,11 +975,13 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="11"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -941,10 +993,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="12"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -956,10 +1010,12 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="12"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -971,10 +1027,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="12"/>
+      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="12"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -986,10 +1044,12 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="12"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="12"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1001,10 +1061,12 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="12"/>
+      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="12"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1016,10 +1078,12 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="12"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="12"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1031,10 +1095,12 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="12"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="12"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1046,10 +1112,12 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="12"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="12"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1061,10 +1129,12 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="12"/>
+      <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="12"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1076,10 +1146,12 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="12"/>
+      <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="12"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1091,10 +1163,12 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="12"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="12"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1106,10 +1180,12 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="12"/>
+      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="12"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1121,10 +1197,12 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="12"/>
+      <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="12"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1136,10 +1214,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="12"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="12"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1151,10 +1231,12 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="12"/>
+      <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="12"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1166,10 +1248,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="12"/>
+      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="12"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1181,10 +1265,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="12"/>
+      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="12"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1196,10 +1282,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="12"/>
+      <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="12"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1211,10 +1299,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="12"/>
+      <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="12"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1226,10 +1316,12 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="12"/>
+      <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="12"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1241,10 +1333,12 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="12"/>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="12"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1256,10 +1350,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="12"/>
+      <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N41" s="12"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1271,10 +1367,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="12"/>
+      <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="12"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1286,16 +1384,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="12"/>
+      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1WnPLfrizv6JLguBp8Z1IxUj0rcNEMWYIYqb1H2YM1AtSvmXp8iul48FUEVKIlz+lD/4U9WB7sNhelTPIb+oOQ==" saltValue="vyZirunpWl//sn6ec+lYng==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lNGy5b2d2R7RB7Zt649rGawfJ8gTce+1VDdrGEw4rKricZaLfAdwyUa+Ags0HX5XWhwtVOEMKb4oCx4mqHhM1w==" saltValue="INQaYyaIE8NB+0uRfTyH4Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/templates/Expansion_and_Rehabilitation_Template.xlsx
+++ b/src/templates/Expansion_and_Rehabilitation_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B203AD28-EA08-4E42-B2DC-E54B4C841887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBAF7C6-9E16-476E-8BBE-936268C9521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Region</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Regional Office 4</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -342,6 +345,14 @@
     </xf>
     <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -569,10 +580,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -586,87 +597,91 @@
     <col min="12" max="12" width="15" style="2" customWidth="1"/>
     <col min="13" max="13" width="20" style="2" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="12.5703125" style="2"/>
+    <col min="15" max="16" width="20.5703125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
       <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -712,8 +727,11 @@
       <c r="O5" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P5" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="12"/>
@@ -729,8 +747,9 @@
       <c r="M6" s="4"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>44553</v>
       </c>
@@ -776,8 +795,9 @@
       <c r="O7" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -793,8 +813,9 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -810,8 +831,9 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -827,8 +849,9 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -844,8 +867,9 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -861,8 +885,9 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -878,8 +903,9 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -895,8 +921,9 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -912,8 +939,9 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -929,8 +957,9 @@
       <c r="M16" s="11"/>
       <c r="N16" s="13"/>
       <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="13"/>
@@ -946,8 +975,9 @@
       <c r="M17" s="11"/>
       <c r="N17" s="13"/>
       <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
@@ -963,8 +993,9 @@
       <c r="M18" s="11"/>
       <c r="N18" s="13"/>
       <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
@@ -980,8 +1011,9 @@
       <c r="M19" s="11"/>
       <c r="N19" s="13"/>
       <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -997,8 +1029,9 @@
       <c r="M20" s="3"/>
       <c r="N20" s="12"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1014,8 +1047,9 @@
       <c r="M21" s="3"/>
       <c r="N21" s="12"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1031,8 +1065,9 @@
       <c r="M22" s="3"/>
       <c r="N22" s="12"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1048,8 +1083,9 @@
       <c r="M23" s="3"/>
       <c r="N23" s="12"/>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1065,8 +1101,9 @@
       <c r="M24" s="3"/>
       <c r="N24" s="12"/>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1082,8 +1119,9 @@
       <c r="M25" s="3"/>
       <c r="N25" s="12"/>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1099,8 +1137,9 @@
       <c r="M26" s="3"/>
       <c r="N26" s="12"/>
       <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1116,8 +1155,9 @@
       <c r="M27" s="3"/>
       <c r="N27" s="12"/>
       <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1133,8 +1173,9 @@
       <c r="M28" s="3"/>
       <c r="N28" s="12"/>
       <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1150,8 +1191,9 @@
       <c r="M29" s="3"/>
       <c r="N29" s="12"/>
       <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1167,8 +1209,9 @@
       <c r="M30" s="3"/>
       <c r="N30" s="12"/>
       <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1184,8 +1227,9 @@
       <c r="M31" s="3"/>
       <c r="N31" s="12"/>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1201,8 +1245,9 @@
       <c r="M32" s="3"/>
       <c r="N32" s="12"/>
       <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1218,8 +1263,9 @@
       <c r="M33" s="3"/>
       <c r="N33" s="12"/>
       <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1235,8 +1281,9 @@
       <c r="M34" s="3"/>
       <c r="N34" s="12"/>
       <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1252,8 +1299,9 @@
       <c r="M35" s="3"/>
       <c r="N35" s="12"/>
       <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1269,8 +1317,9 @@
       <c r="M36" s="3"/>
       <c r="N36" s="12"/>
       <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1286,8 +1335,9 @@
       <c r="M37" s="3"/>
       <c r="N37" s="12"/>
       <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1303,8 +1353,9 @@
       <c r="M38" s="3"/>
       <c r="N38" s="12"/>
       <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1320,8 +1371,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="12"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1337,8 +1389,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="12"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1354,8 +1407,9 @@
       <c r="M41" s="3"/>
       <c r="N41" s="12"/>
       <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1371,8 +1425,9 @@
       <c r="M42" s="3"/>
       <c r="N42" s="12"/>
       <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1388,6 +1443,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="12"/>
       <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lNGy5b2d2R7RB7Zt649rGawfJ8gTce+1VDdrGEw4rKricZaLfAdwyUa+Ags0HX5XWhwtVOEMKb4oCx4mqHhM1w==" saltValue="INQaYyaIE8NB+0uRfTyH4Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
